--- a/TP1/errosall.xlsx
+++ b/TP1/errosall.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silam\OneDrive\Desktop\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eow\Desktop\Mestrado\GA\TP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="104">
   <si>
     <t xml:space="preserve">      SOMA DOS QUADRADOS DOS RESIDUOS =      57.776</t>
   </si>
@@ -336,6 +336,15 @@
   </si>
   <si>
     <t>DGT rot</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>pesos</t>
+  </si>
+  <si>
+    <t>graus liberdade</t>
   </si>
 </sst>
 </file>
@@ -395,10 +404,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -428,7 +437,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37615966754155733"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3959,16 +3975,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4056,10 +4072,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:O9" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:O9" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A2:O9"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Column1" dataDxfId="3"/>
+    <tableColumn id="1" name="Column1" dataDxfId="2"/>
     <tableColumn id="2" name="DGT"/>
     <tableColumn id="15" name="DGT rot"/>
     <tableColumn id="3" name="119"/>
@@ -4354,36 +4370,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B13"/>
+  <dimension ref="A3:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>119</v>
       </c>
       <c r="B5" s="3">
         <v>57.776000000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>57.776000000000003</v>
+      </c>
+      <c r="D5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>80</v>
       </c>
@@ -4391,7 +4423,7 @@
         <v>15.084</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>73</v>
       </c>
@@ -4399,7 +4431,7 @@
         <v>6.4790000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>74</v>
       </c>
@@ -4407,7 +4439,7 @@
         <v>10.345000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>75</v>
       </c>
@@ -4415,7 +4447,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>76</v>
       </c>
@@ -4423,13 +4455,13 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
     </row>
   </sheetData>
@@ -4443,7 +4475,7 @@
   <dimension ref="B1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4642,7 +4674,7 @@
   <dimension ref="A2:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5083,7 +5115,7 @@
   <dimension ref="A2:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="A2" sqref="A2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5223,7 +5255,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D24"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TP1/errosall.xlsx
+++ b/TP1/errosall.xlsx
@@ -1,39 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eow\Desktop\Mestrado\GA\TP1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eow\Desktop\GA\TP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDA8A75-25B2-4C07-8B7F-002E3A928D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="9750" activeTab="2"/>
+    <workbookView xWindow="4335" yWindow="0" windowWidth="23370" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="EMQs" sheetId="8" r:id="rId1"/>
-    <sheet name="EMQ residuos" sheetId="9" r:id="rId2"/>
+    <sheet name="Sheet2 (2)" sheetId="11" r:id="rId1"/>
+    <sheet name="EMQs" sheetId="8" r:id="rId2"/>
     <sheet name="Exactidao" sheetId="10" r:id="rId3"/>
     <sheet name="119" sheetId="1" r:id="rId4"/>
-    <sheet name="80" sheetId="2" r:id="rId5"/>
-    <sheet name="Geral10" sheetId="3" r:id="rId6"/>
-    <sheet name="Geral 20" sheetId="4" r:id="rId7"/>
-    <sheet name="Alentejo10" sheetId="6" r:id="rId8"/>
-    <sheet name="Alentejo20" sheetId="5" r:id="rId9"/>
-    <sheet name="DGT" sheetId="7" r:id="rId10"/>
+    <sheet name="Geral10" sheetId="3" r:id="rId5"/>
+    <sheet name="Alentejo10" sheetId="6" r:id="rId6"/>
+    <sheet name="DGT" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
   <si>
     <t xml:space="preserve">      SOMA DOS QUADRADOS DOS RESIDUOS =      57.776</t>
   </si>
@@ -68,121 +75,7 @@
     <t xml:space="preserve">      EZ(seg)    ==&gt;       -.899         .103</t>
   </si>
   <si>
-    <t xml:space="preserve">     SOMA DOS QUADRADOS DOS RESIDUOS =      15.084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      N. GRAUS LIB. =233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      E.M.Q. DA UNIDADE DE PESO =      .254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      DX(m)      ==&gt;    -230.592        1.521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      DY(m)      ==&gt;     107.303        3.276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      DZ(m)      ==&gt;      25.320        1.411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ALFA(ppm)  ==&gt;       1.971         .204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      EX(seg)    ==&gt;       -.744         .074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      EY(seg)    ==&gt;        .251         .051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      EZ(seg)    ==&gt;       -.800         .088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      SOMA DOS QUADRADOS DOS RESIDUOS =       6.479</t>
-  </si>
-  <si>
     <t xml:space="preserve">      N. GRAUS LIB. = 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      E.M.Q. DA UNIDADE DE PESO =      .531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      DX(m)      ==&gt;    -239.944        6.459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      DY(m)      ==&gt;      86.683       14.495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      DZ(m)      ==&gt;      30.234        5.907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ALFA(ppm)  ==&gt;       2.260         .852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      EX(seg)    ==&gt;       -.216         .323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      EY(seg)    ==&gt;       -.087         .217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      EZ(seg)    ==&gt;      -1.232         .387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      SOMA DOS QUADRADOS DOS RESIDUOS =      10.345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      N. GRAUS LIB. = 53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      E.M.Q. DA UNIDADE DE PESO =      .442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      DX(m)      ==&gt;    -239.094        3.994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      DY(m)      ==&gt;      90.349        9.387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      DZ(m)      ==&gt;      27.952        3.680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ALFA(ppm)  ==&gt;       2.440         .542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      EX(seg)    ==&gt;       -.301         .209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      EY(seg)    ==&gt;       -.008         .132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      EZ(seg)    ==&gt;      -1.157         .249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      SOMA DOS QUADRADOS DOS RESIDUOS =        .485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      E.M.Q. DA UNIDADE DE PESO =      .096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      DX(m)      ==&gt;    -244.969        2.759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      DY(m)      ==&gt;     103.735        3.511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      DZ(m)      ==&gt;       2.700        3.031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ALFA(ppm)  ==&gt;       5.857         .375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      EX(seg)    ==&gt;        .145         .095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      EY(seg)    ==&gt;        .427         .107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      EZ(seg)    ==&gt;       -.356         .101</t>
   </si>
   <si>
     <t xml:space="preserve">     SOMA DOS QUADRADOS DOS RESIDUOS =        .093</t>
@@ -257,73 +150,19 @@
     <t>Geral 10</t>
   </si>
   <si>
-    <t>Geral 20</t>
-  </si>
-  <si>
     <t>Alentejo 10</t>
-  </si>
-  <si>
-    <t>Alentejo 20</t>
-  </si>
-  <si>
-    <t>EMQ</t>
-  </si>
-  <si>
-    <t>delta x</t>
-  </si>
-  <si>
-    <t>delta y</t>
-  </si>
-  <si>
-    <t>delta z</t>
-  </si>
-  <si>
-    <t>delta alfa</t>
-  </si>
-  <si>
-    <t>delta rot x</t>
-  </si>
-  <si>
-    <t>delta rot y</t>
-  </si>
-  <si>
-    <t>delta rot z</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>G20</t>
-  </si>
-  <si>
     <t>A10</t>
-  </si>
-  <si>
-    <t>A20</t>
-  </si>
-  <si>
-    <t>Rot x</t>
-  </si>
-  <si>
-    <t>Rot y</t>
-  </si>
-  <si>
-    <t>DGT-119</t>
-  </si>
-  <si>
-    <t>DGT-80</t>
   </si>
   <si>
     <t>DGT-G10</t>
   </si>
   <si>
-    <t>DGT-G20</t>
-  </si>
-  <si>
     <t>DGT-A10</t>
-  </si>
-  <si>
-    <t>DGT-A20</t>
   </si>
   <si>
     <t>Column1</t>
@@ -332,35 +171,199 @@
     <t>119</t>
   </si>
   <si>
-    <t>80</t>
+    <t>graus liberdade</t>
   </si>
   <si>
-    <t>DGT rot</t>
+    <t>soma quad residuos</t>
   </si>
   <si>
-    <t>sigma</t>
+    <t>emq peso</t>
   </si>
   <si>
-    <t>pesos</t>
+    <t>variancia</t>
   </si>
   <si>
-    <t>graus liberdade</t>
+    <t>incerteza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      SOMA DOS QUADRADOS DOS RESIDUOS =       3.751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      E.M.Q. DA UNIDADE DE PESO =      .404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      DX(m)      ==&gt;    -227.316        6.040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      DY(m)      ==&gt;     102.259       20.373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      DZ(m)      ==&gt;      23.978        4.964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ALFA(ppm)  ==&gt;       1.631         .754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      EX(seg)    ==&gt;       -.495         .433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      EY(seg)    ==&gt;        .325         .186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      EZ(seg)    ==&gt;       -.788         .527</t>
+  </si>
+  <si>
+    <t>EMQ2</t>
+  </si>
+  <si>
+    <t>EMQ3</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x (m)</t>
+    </r>
+  </si>
+  <si>
+    <t>Δy (m)</t>
+  </si>
+  <si>
+    <t>Δz (m)</t>
+  </si>
+  <si>
+    <t>Rx ('')</t>
+  </si>
+  <si>
+    <t>Ry ('')</t>
+  </si>
+  <si>
+    <t>Rz ('')</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">α </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ppm)</t>
+    </r>
+  </si>
+  <si>
+    <t>IGP</t>
+  </si>
+  <si>
+    <t>Incerteza</t>
+  </si>
+  <si>
+    <t>Global 119</t>
+  </si>
+  <si>
+    <t>Exatidao</t>
+  </si>
+  <si>
+    <t>Incerteza2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>A102</t>
+  </si>
+  <si>
+    <t>Parametros de Transformacao</t>
+  </si>
+  <si>
+    <t>1192</t>
+  </si>
+  <si>
+    <t>G102</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>DP (m)</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Δ altitude</t>
+  </si>
+  <si>
+    <t>Δ longitude</t>
+  </si>
+  <si>
+    <t>Δ latitude</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -371,7 +374,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -379,11 +382,386 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,13 +770,165 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="15">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -408,6 +938,15 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -429,22 +968,39 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="106"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="6"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.37615966754155733"/>
-          <c:y val="2.7777777777777776E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Comparacao EMQ das 3 Solucoes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -458,7 +1014,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -484,143 +1040,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>EMQs!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>119</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>EMQs!$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>57.776000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-90C7-4AF9-94DD-1B6422829722}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>EMQs!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>80</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>EMQs!$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>15.084</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-90C7-4AF9-94DD-1B6422829722}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>EMQs!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Geral 10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>EMQs!$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>6.4790000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-90C7-4AF9-94DD-1B6422829722}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>EMQs!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Geral 20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4"/>
@@ -631,128 +1050,139 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>EMQs!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Geral 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Alentejo 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>EMQs!$B$8</c:f>
+              <c:f>EMQs!$C$5:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10.345000000000001</c:v>
+                  <c:v>0.40600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-90C7-4AF9-94DD-1B6422829722}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>EMQs!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Alentejo 10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>EMQs!$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>9.2999999999999999E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-90C7-4AF9-94DD-1B6422829722}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>EMQs!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Alentejo 20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>EMQs!$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.48499999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-90C7-4AF9-94DD-1B6422829722}"/>
+              <c16:uniqueId val="{00000000-23D5-432F-8EDE-682E3E3E895A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1166577727"/>
-        <c:axId val="1166581887"/>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="381198432"/>
+        <c:axId val="381212992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1166577727"/>
+        <c:axId val="381198432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -775,7 +1205,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -790,7 +1220,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1166581887"/>
+        <c:crossAx val="381212992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -798,58 +1228,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1166581887"/>
+        <c:axId val="381212992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1166577727"/>
+        <c:crossAx val="381198432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -861,45 +1250,13 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -945,7 +1302,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Translacoes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -959,7 +1340,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -987,7 +1368,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Exactidao!$B$2</c:f>
+              <c:f>Exactidao!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1006,44 +1387,88 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Exactidao!$A$3:$A$5</c:f>
+              <c:f>Exactidao!$A$18:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Dx</c:v>
+                  <c:v>Δx (m)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dy</c:v>
+                  <c:v>Δy (m)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Dz</c:v>
+                  <c:v>Δz (m)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Exactidao!$B$3:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>-230.994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>102.59099999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.199000000000002</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Exactidao!$B$18:$B$20</c:f>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-80FB-47B8-BD98-ED4FE1619533}"/>
+              <c16:uniqueId val="{00000000-FBD0-4452-B158-0E7AB9540780}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1052,11 +1477,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Exactidao!$C$2</c:f>
+              <c:f>Exactidao!$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DGT rot</c:v>
+                  <c:v>IGP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1071,26 +1496,83 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Exactidao!$A$3:$A$5</c:f>
+              <c:f>Exactidao!$A$18:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Dx</c:v>
+                  <c:v>Δx (m)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dy</c:v>
+                  <c:v>Δy (m)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Dz</c:v>
+                  <c:v>Δz (m)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Exactidao!$C$3:$C$5</c:f>
+              <c:f>Exactidao!$C$18:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1108,7 +1590,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-80FB-47B8-BD98-ED4FE1619533}"/>
+              <c16:uniqueId val="{00000001-FBD0-4452-B158-0E7AB9540780}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1117,11 +1599,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Exactidao!$D$2</c:f>
+              <c:f>Exactidao!$D$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>119</c:v>
+                  <c:v>Global 119</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1136,26 +1618,83 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Exactidao!$A$3:$A$5</c:f>
+              <c:f>Exactidao!$A$18:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Dx</c:v>
+                  <c:v>Δx (m)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dy</c:v>
+                  <c:v>Δy (m)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Dz</c:v>
+                  <c:v>Δz (m)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Exactidao!$D$3:$D$5</c:f>
+              <c:f>Exactidao!$D$18:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1173,7 +1712,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-80FB-47B8-BD98-ED4FE1619533}"/>
+              <c16:uniqueId val="{00000002-FBD0-4452-B158-0E7AB9540780}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1182,11 +1721,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Exactidao!$F$2</c:f>
+              <c:f>Exactidao!$E$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>G10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1201,44 +1740,101 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Exactidao!$A$3:$A$5</c:f>
+              <c:f>Exactidao!$A$18:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Dx</c:v>
+                  <c:v>Δx (m)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dy</c:v>
+                  <c:v>Δy (m)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Dz</c:v>
+                  <c:v>Δz (m)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Exactidao!$F$3:$F$5</c:f>
+              <c:f>Exactidao!$E$18:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-230.59200000000001</c:v>
+                  <c:v>-239.94399999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107.303</c:v>
+                  <c:v>86.682000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.32</c:v>
+                  <c:v>30.234000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-80FB-47B8-BD98-ED4FE1619533}"/>
+              <c16:uniqueId val="{00000006-FBD0-4452-B158-0E7AB9540780}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1247,11 +1843,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Exactidao!$H$2</c:f>
+              <c:f>Exactidao!$F$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>G10</c:v>
+                  <c:v>A10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1266,266 +1862,139 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Exactidao!$A$3:$A$5</c:f>
+              <c:f>Exactidao!$A$18:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Dx</c:v>
+                  <c:v>Δx (m)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dy</c:v>
+                  <c:v>Δy (m)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Dz</c:v>
+                  <c:v>Δz (m)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Exactidao!$H$3:$H$5</c:f>
+              <c:f>Exactidao!$F$18:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-239.94399999999999</c:v>
+                  <c:v>-260.95699999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.682000000000002</c:v>
+                  <c:v>114.54300000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.234000000000002</c:v>
+                  <c:v>1.337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-80FB-47B8-BD98-ED4FE1619533}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Exactidao!$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>G20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Exactidao!$A$3:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Dx</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Dy</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Dz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Exactidao!$J$3:$J$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>-239.09399999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>90.349000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27.952000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-80FB-47B8-BD98-ED4FE1619533}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Exactidao!$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>A10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Exactidao!$A$3:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Dx</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Dy</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Dz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Exactidao!$L$3:$L$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>-260.95699999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>114.54300000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.337</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-80FB-47B8-BD98-ED4FE1619533}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Exactidao!$N$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>A20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Exactidao!$A$3:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Dx</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Dy</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Dz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Exactidao!$N$3:$N$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>-244.96899999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>103.735</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-80FB-47B8-BD98-ED4FE1619533}"/>
+              <c16:uniqueId val="{00000007-FBD0-4452-B158-0E7AB9540780}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1166561327"/>
-        <c:axId val="1166558415"/>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="381209248"/>
+        <c:axId val="381221728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1166561327"/>
+        <c:axId val="381209248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1548,7 +2017,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1563,7 +2032,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1166558415"/>
+        <c:crossAx val="381221728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1571,58 +2040,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1166558415"/>
+        <c:axId val="381221728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1166561327"/>
+        <c:crossAx val="381209248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1635,8 +2063,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.67760321393721834"/>
+          <c:y val="0.88089722658072178"/>
+          <c:w val="0.32239683529494484"/>
+          <c:h val="8.6372913160389239E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1672,7 +2109,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1718,7 +2155,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Rotacoes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1732,7 +2193,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1760,11 +2221,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Exactidao!$E$2</c:f>
+              <c:f>Exactidao!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DGT-119</c:v>
+                  <c:v>DGT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1779,44 +2240,111 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Exactidao!$A$3:$A$5</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Exactidao!$A$18:$A$23</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Exactidao!$A$21:$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Dx</c:v>
+                  <c:v>Δx (m)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dy</c:v>
+                  <c:v>Δy (m)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Dz</c:v>
+                  <c:v>Δz (m)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rx ('')</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ry ('')</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rz ('')</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Exactidao!$E$3:$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>-4.5999999999992269E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.7000000000001023E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.2999999999999687E-2</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Exactidao!$B$18:$B$23</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Exactidao!$B$21:$B$23</c:f>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0334-420A-9D9D-817287D73C9C}"/>
+              <c16:uniqueId val="{00000000-F24E-4E96-8CBD-B0ED9080CDC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1825,11 +2353,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Exactidao!$G$2</c:f>
+              <c:f>Exactidao!$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DGT-80</c:v>
+                  <c:v>IGP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1844,44 +2372,115 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Exactidao!$A$3:$A$5</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Exactidao!$A$18:$A$23</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Exactidao!$A$21:$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Dx</c:v>
+                  <c:v>Rx ('')</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dy</c:v>
+                  <c:v>Ry ('')</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Dz</c:v>
+                  <c:v>Rz ('')</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Exactidao!$G$3:$G$5</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Exactidao!$C$18:$C$23</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Exactidao!$C$21:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-0.40199999999998681</c:v>
+                  <c:v>-0.63300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.7120000000000033</c:v>
+                  <c:v>0.23899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.12099999999999866</c:v>
+                  <c:v>-0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0334-420A-9D9D-817287D73C9C}"/>
+              <c16:uniqueId val="{00000001-F24E-4E96-8CBD-B0ED9080CDC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1890,11 +2489,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Exactidao!$I$2</c:f>
+              <c:f>Exactidao!$D$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DGT-G10</c:v>
+                  <c:v>Global 119</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1909,44 +2508,115 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Exactidao!$A$3:$A$5</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Exactidao!$A$18:$A$23</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Exactidao!$A$21:$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Dx</c:v>
+                  <c:v>Rx ('')</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dy</c:v>
+                  <c:v>Ry ('')</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Dz</c:v>
+                  <c:v>Rz ('')</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Exactidao!$I$3:$I$5</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Exactidao!$D$18:$D$23</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Exactidao!$D$21:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.9499999999999886</c:v>
+                  <c:v>-0.63400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.908999999999992</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.0350000000000001</c:v>
+                  <c:v>-0.89900000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0334-420A-9D9D-817287D73C9C}"/>
+              <c16:uniqueId val="{00000002-F24E-4E96-8CBD-B0ED9080CDC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1955,11 +2625,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Exactidao!$K$2</c:f>
+              <c:f>Exactidao!$E$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DGT-G20</c:v>
+                  <c:v>G10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1974,44 +2644,115 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Exactidao!$A$3:$A$5</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Exactidao!$A$18:$A$23</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Exactidao!$A$21:$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Dx</c:v>
+                  <c:v>Rx ('')</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dy</c:v>
+                  <c:v>Ry ('')</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Dz</c:v>
+                  <c:v>Rz ('')</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Exactidao!$K$3:$K$5</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Exactidao!$E$18:$E$23</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Exactidao!$E$21:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.0999999999999943</c:v>
+                  <c:v>-0.216</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.24199999999999</c:v>
+                  <c:v>-8.6999999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.7530000000000001</c:v>
+                  <c:v>-1.232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0334-420A-9D9D-817287D73C9C}"/>
+              <c16:uniqueId val="{00000003-F24E-4E96-8CBD-B0ED9080CDC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2020,11 +2761,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Exactidao!$M$2</c:f>
+              <c:f>Exactidao!$F$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DGT-A10</c:v>
+                  <c:v>A10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2039,132 +2780,153 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Exactidao!$A$3:$A$5</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Exactidao!$A$18:$A$23</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Exactidao!$A$21:$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Dx</c:v>
+                  <c:v>Rx ('')</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dy</c:v>
+                  <c:v>Ry ('')</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Dz</c:v>
+                  <c:v>Rz ('')</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Exactidao!$M$3:$M$5</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Exactidao!$F$18:$F$23</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Exactidao!$F$21:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>29.962999999999994</c:v>
+                  <c:v>-3.5000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-11.952000000000012</c:v>
+                  <c:v>0.14099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.862000000000002</c:v>
+                  <c:v>-0.115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0334-420A-9D9D-817287D73C9C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Exactidao!$O$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DGT-A20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Exactidao!$A$3:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Dx</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Dy</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Dz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Exactidao!$O$3:$O$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>13.974999999999994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.1440000000000055</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.499000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-0334-420A-9D9D-817287D73C9C}"/>
+              <c16:uniqueId val="{00000004-F24E-4E96-8CBD-B0ED9080CDC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1325825279"/>
-        <c:axId val="1325818207"/>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="387839744"/>
+        <c:axId val="387835168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1325825279"/>
+        <c:axId val="387839744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2187,7 +2949,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2202,7 +2964,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1325818207"/>
+        <c:crossAx val="387835168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2210,58 +2972,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1325818207"/>
+        <c:axId val="387835168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1325825279"/>
+        <c:crossAx val="387839744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2274,8 +2995,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2311,7 +3031,1488 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Exactidao!$B$16:$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>DGT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Exactidao!$A$18:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Δx (m)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Δy (m)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Δz (m)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rx ('')</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ry ('')</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rz ('')</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>α (ppm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Exactidao!$B$18:$B$24</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E0FA-4242-8656-9BCC40E9CD9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Exactidao!$G$16:$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Exatidao</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Exactidao!$A$18:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Δx (m)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Δy (m)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Δz (m)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rx ('')</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ry ('')</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rz ('')</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>α (ppm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Exactidao!$G$18:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-4.5999999999992269E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.7000000000001023E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.2999999999999687E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.0000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.0000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0000000000000071E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E0FA-4242-8656-9BCC40E9CD9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Exactidao!$H$16:$H$17</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Exatidao</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DGT-G10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Exactidao!$A$18:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Δx (m)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Δy (m)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Δz (m)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rx ('')</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ry ('')</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rz ('')</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>α (ppm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Exactidao!$H$18:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.9499999999999886</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.908999999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.0350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.41700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.30999999999999983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E0FA-4242-8656-9BCC40E9CD9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Exactidao!$I$16:$I$17</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Exatidao</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DGT-A10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Exactidao!$A$18:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Δx (m)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Δy (m)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Δz (m)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rx ('')</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ry ('')</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rz ('')</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>α (ppm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Exactidao!$I$18:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>29.962999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11.952000000000012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.862000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.59799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.1949999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E0FA-4242-8656-9BCC40E9CD9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="357250016"/>
+        <c:axId val="357245024"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Exactidao!$C$16:$C$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Parametros de Transformacao</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>IGP</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="50000"/>
+                              <a:lumOff val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Exactidao!$A$18:$A$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>Δx (m)</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Δy (m)</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Δz (m)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Rx ('')</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Ry ('')</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Rz ('')</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>α (ppm)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Exactidao!$C$18:$C$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>-230.994</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>102.59099999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>25.199000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-0.63300000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.23899999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.95</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-E0FA-4242-8656-9BCC40E9CD9B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Exactidao!$D$16:$D$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Parametros de Transformacao</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Global 119</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="50000"/>
+                              <a:lumOff val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Exactidao!$A$18:$A$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>Δx (m)</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Δy (m)</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Δz (m)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Rx ('')</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Ry ('')</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Rz ('')</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>α (ppm)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Exactidao!$D$18:$D$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>-230.94800000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>102.61799999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>25.222000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-0.63400000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.24</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-0.89900000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.9419999999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-E0FA-4242-8656-9BCC40E9CD9B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Exactidao!$E$16:$E$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Parametros de Transformacao</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>G10</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="50000"/>
+                              <a:lumOff val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Exactidao!$A$18:$A$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>Δx (m)</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Δy (m)</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Δz (m)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Rx ('')</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Ry ('')</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Rz ('')</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>α (ppm)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Exactidao!$E$18:$E$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>-239.94399999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>86.682000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>30.234000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-0.216</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-8.6999999999999994E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-1.232</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2.2599999999999998</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-E0FA-4242-8656-9BCC40E9CD9B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Exactidao!$F$16:$F$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Parametros de Transformacao</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>A10</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="50000"/>
+                              <a:lumOff val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Exactidao!$A$18:$A$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>Δx (m)</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Δy (m)</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Δz (m)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Rx ('')</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Ry ('')</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Rz ('')</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>α (ppm)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Exactidao!$F$18:$F$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>-260.95699999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>114.54300000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.337</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-3.5000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.14099999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-0.115</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8.1449999999999996</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-E0FA-4242-8656-9BCC40E9CD9B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="357250016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357245024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="357245024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="357250016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -2343,42 +4544,8 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -2462,8 +4629,45 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2474,7 +4678,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2497,18 +4701,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -2520,7 +4724,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2528,11 +4732,14 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -2564,35 +4771,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2604,30 +4821,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2649,15 +4870,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2672,15 +4891,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2691,17 +4910,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2710,10 +4928,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -2729,21 +4947,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2762,17 +4974,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2781,17 +4992,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2800,17 +5010,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2831,7 +5040,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -2839,147 +5048,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3001,17 +5073,170 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -3023,7 +5248,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3031,11 +5256,14 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -3067,35 +5295,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3107,30 +5345,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3152,15 +5394,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3175,15 +5415,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3194,17 +5434,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3213,10 +5452,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -3232,21 +5471,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3265,17 +5498,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3284,17 +5516,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3303,17 +5534,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3334,7 +5564,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -3342,147 +5572,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3504,17 +5597,170 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -3526,7 +5772,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3534,11 +5780,14 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -3570,35 +5819,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3610,30 +5869,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3655,15 +5918,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3678,15 +5939,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3697,17 +5958,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3716,10 +5976,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -3735,21 +5995,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3768,17 +6022,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3787,17 +6040,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3806,17 +6058,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3837,7 +6088,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -3845,7 +6096,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3858,6 +6109,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3865,10 +6127,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -3889,7 +6151,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3898,14 +6160,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3919,7 +6181,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -3931,6 +6193,279 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
@@ -3941,8 +6476,126 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3953,20 +6606,158 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3975,20 +6766,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6CE48B-71C3-4E14-A763-F2149CA612D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4011,19 +6808,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48C7F689-A389-44B6-B5DA-D8C035A5D1D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4040,20 +6843,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F23AAE37-FE62-4EB8-9226-B04F75083966}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4068,40 +6877,107 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>147636</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCF736C1-F3B8-417D-B451-CF143B5F82A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:O9" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A2:O9"/>
-  <tableColumns count="15">
-    <tableColumn id="1" name="Column1" dataDxfId="2"/>
-    <tableColumn id="2" name="DGT"/>
-    <tableColumn id="15" name="DGT rot"/>
-    <tableColumn id="3" name="119"/>
-    <tableColumn id="4" name="DGT-119" dataDxfId="1">
-      <calculatedColumnFormula>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[119]]</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{821C49F6-E01B-44D7-849E-650B544C00C2}" name="Table3" displayName="Table3" ref="A22:E27" totalsRowShown="0">
+  <autoFilter ref="A22:E27" xr:uid="{821C49F6-E01B-44D7-849E-650B544C00C2}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{1DA873EA-103B-4CD2-9B03-7ADAE83161F9}" name="Column1" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{2B4D4968-9AEE-4135-9EDA-2C8A23119DBC}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{3A9A6343-6A50-40B3-B3BF-E91578391B2A}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{B8EDD36B-7EBB-454A-9292-E9030892F832}" name="Column4" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{BF10D27C-DD91-4077-9236-4A812967C887}" name="Column5" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:M9" totalsRowShown="0" headerRowDxfId="11">
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DGT"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="IGP"/>
+    <tableColumn id="13" xr3:uid="{B22AE2B7-9D9D-4B94-B85D-C0E5E7A19464}" name="Incerteza"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Global 119"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Exatidao" dataDxfId="9">
+      <calculatedColumnFormula>Table2[[#This Row],[IGP]]-Table2[[#This Row],[Global 119]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="80"/>
-    <tableColumn id="6" name="DGT-80" dataDxfId="0">
-      <calculatedColumnFormula>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[80]]</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{3D7373DB-6F79-4070-A924-6E9B98AFD23A}" name="Incerteza2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="G10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="DGT-G10">
+      <calculatedColumnFormula>Table2[[#This Row],[IGP]]-Table2[[#This Row],[G10]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="G10"/>
-    <tableColumn id="8" name="DGT-G10">
-      <calculatedColumnFormula>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[G10]]</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{981DEC8E-F9B9-4BEF-88B3-E5F12CC17150}" name="EMQ2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="A10"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="DGT-A10">
+      <calculatedColumnFormula>Table2[[#This Row],[IGP]]-Table2[[#This Row],[A10]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="G20"/>
-    <tableColumn id="10" name="DGT-G20">
-      <calculatedColumnFormula>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[G20]]</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{01231C36-4516-4D4E-93BC-DDA6971A3EFF}" name="EMQ3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{79DC45CB-1145-4AA3-88E7-D75600E550CA}" name="Table22" displayName="Table22" ref="A17:L24" totalsRowShown="0" headerRowDxfId="8">
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{5FF3CF54-7827-4A8A-AF98-71EF26240B8F}" name=" " dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{A28F8707-76DA-4819-9DA3-9072A8F3E9AF}" name="DGT"/>
+    <tableColumn id="15" xr3:uid="{5770AD5D-9EF8-42E3-AD85-178DB616AF1E}" name="IGP" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{6DE11C64-DD4D-4774-B9B0-2F1AF935A23E}" name="Global 119"/>
+    <tableColumn id="14" xr3:uid="{48348AFD-F770-4E50-9A81-E3EF1B8084B7}" name="G10"/>
+    <tableColumn id="16" xr3:uid="{C9CE93F1-F8D8-495A-8ACD-2BF8B3A1E1B9}" name="A10" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{D45EB767-8EFA-411E-AF6E-AB47EA676881}" name="119" dataDxfId="4">
+      <calculatedColumnFormula>Table22[[#This Row],[IGP]]-Table22[[#This Row],[Global 119]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="A10"/>
-    <tableColumn id="12" name="DGT-A10">
-      <calculatedColumnFormula>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[A10]]</calculatedColumnFormula>
+    <tableColumn id="17" xr3:uid="{D97ACBE1-6BC8-42FD-BEC6-9E619C85FA45}" name="DGT-G10" dataDxfId="3">
+      <calculatedColumnFormula>Table22[[#This Row],[IGP]]-Table22[[#This Row],[G10]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="A20"/>
-    <tableColumn id="14" name="DGT-A20">
-      <calculatedColumnFormula>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[A20]]</calculatedColumnFormula>
+    <tableColumn id="18" xr3:uid="{3EEF0D22-33C8-4756-86EB-FEC49CE3A2C1}" name="DGT-A10" dataDxfId="2">
+      <calculatedColumnFormula>Table22[[#This Row],[IGP]]-Table22[[#This Row],[A10]]</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="6" xr3:uid="{472A2A6F-5FCB-4184-B902-9AF0B5A5063E}" name="1192" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{78CF9362-B7F7-406C-A5FC-1AA9B270B648}" name="G102"/>
+    <tableColumn id="10" xr3:uid="{8F63D661-672B-450C-BB29-3FC5C34B49C6}" name="A102" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4369,39 +7245,228 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EEB8DC-2ED3-47C1-8274-18E4301D0A57}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="34">
+        <v>-3.1399159662403676E-2</v>
+      </c>
+      <c r="D2" s="33">
+        <v>-3.3352941176282694E-2</v>
+      </c>
+      <c r="E2" s="32">
+        <v>-0.12277310924369651</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="27">
+        <v>3.5395120244882804E-2</v>
+      </c>
+      <c r="D3" s="26">
+        <v>4.4843302945697383E-2</v>
+      </c>
+      <c r="E3" s="25">
+        <v>0.36003950383105315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="27">
+        <v>1.0932660553347442</v>
+      </c>
+      <c r="D4" s="26">
+        <v>1.0683973315264339</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="27">
+        <v>2.2042016807676526E-3</v>
+      </c>
+      <c r="D5" s="26">
+        <v>1.6815126052837726E-3</v>
+      </c>
+      <c r="E5" s="25">
+        <v>-4.8571428571427384E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="27">
+        <v>1.4021126885324234E-2</v>
+      </c>
+      <c r="D6" s="26">
+        <v>1.8799534977066958E-2</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0.3600473491604389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0.43307727096879961</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0.44790134498992129</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <v>119</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="27">
+        <v>-2.2521008353666402E-4</v>
+      </c>
+      <c r="D8" s="26">
+        <v>1.932773109289946E-4</v>
+      </c>
+      <c r="E8" s="25">
+        <v>1.7647058823519334E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="27">
+        <v>1.3621123106814147E-2</v>
+      </c>
+      <c r="D9" s="26">
+        <v>1.7943041211229215E-2</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0.35136384230409412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0.42072216241075083</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.42749526642150193</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>119</v>
       </c>
@@ -4409,329 +7474,316 @@
         <v>57.776000000000003</v>
       </c>
       <c r="C5">
-        <v>57.776000000000003</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="D5">
         <v>350</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>80</v>
+      <c r="E5">
+        <f>C5/(3*D5-7)</f>
+        <v>3.8926174496644298E-4</v>
+      </c>
+      <c r="F5">
+        <f>SQRT(E5)</f>
+        <v>1.9729717305791358E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B6" s="3">
-        <v>15.084</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.7509999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E7" si="0">C6/(3*D6-7)</f>
+        <v>6.516129032258065E-3</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F7" si="1">SQRT(E6)</f>
+        <v>8.0722543519503059E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3">
-        <v>6.4790000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="3">
-        <v>10.345000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="3">
         <v>9.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.48499999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
+      <c r="C7">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.0161290322580644E-3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>3.1876778887743103E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>119</v>
+      </c>
+      <c r="B25">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="C25">
+        <v>350</v>
+      </c>
+      <c r="D25" s="16">
+        <f>B25/(3*C25-7)</f>
+        <v>3.8926174496644298E-4</v>
+      </c>
+      <c r="E25" s="16">
+        <f>SQRT(D25)</f>
+        <v>1.9729717305791358E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="C26">
+        <v>23</v>
+      </c>
+      <c r="D26" s="16">
+        <f t="shared" ref="D26:D27" si="2">B26/(3*C26-7)</f>
+        <v>6.516129032258065E-3</v>
+      </c>
+      <c r="E26" s="16">
+        <f t="shared" ref="E26:E27" si="3">SQRT(D26)</f>
+        <v>8.0722543519503059E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27" s="16">
+        <f t="shared" si="2"/>
+        <v>1.0161290322580644E-3</v>
+      </c>
+      <c r="E27" s="16">
+        <f t="shared" si="3"/>
+        <v>3.1876778887743103E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D13"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2">
-        <v>-230.994</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3">
-        <v>102.59099999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4">
-        <v>25.199000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5">
-        <v>0.63300000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6">
-        <v>-0.23899999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="D11">
-        <v>1.351</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="D12">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="D13">
-        <v>1.0169999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="15" width="10.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>-230.994</v>
@@ -4740,51 +7792,42 @@
         <v>-230.994</v>
       </c>
       <c r="D3">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="E3">
         <v>-230.94800000000001</v>
       </c>
-      <c r="E3">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[119]]</f>
+      <c r="F3">
+        <f>Table2[[#This Row],[IGP]]-Table2[[#This Row],[Global 119]]</f>
         <v>-4.5999999999992269E-2</v>
       </c>
-      <c r="F3">
-        <v>-230.59200000000001</v>
-      </c>
       <c r="G3">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[80]]</f>
-        <v>-0.40199999999998681</v>
+        <v>1.56</v>
       </c>
       <c r="H3">
         <v>-239.94399999999999</v>
       </c>
       <c r="I3">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[G10]]</f>
+        <f>Table2[[#This Row],[IGP]]-Table2[[#This Row],[G10]]</f>
         <v>8.9499999999999886</v>
       </c>
       <c r="J3">
-        <v>-239.09399999999999</v>
+        <v>6.04</v>
       </c>
       <c r="K3">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[G20]]</f>
-        <v>8.0999999999999943</v>
+        <v>-260.95699999999999</v>
       </c>
       <c r="L3">
-        <v>-260.95699999999999</v>
+        <f>Table2[[#This Row],[IGP]]-Table2[[#This Row],[A10]]</f>
+        <v>29.962999999999994</v>
       </c>
       <c r="M3">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[A10]]</f>
-        <v>29.962999999999994</v>
-      </c>
-      <c r="N3">
-        <v>-244.96899999999999</v>
-      </c>
-      <c r="O3">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[A20]]</f>
-        <v>13.974999999999994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4">
         <v>102.59099999999999</v>
@@ -4793,51 +7836,42 @@
         <v>102.59099999999999</v>
       </c>
       <c r="D4">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="E4">
         <v>102.61799999999999</v>
       </c>
-      <c r="E4">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[119]]</f>
+      <c r="F4">
+        <f>Table2[[#This Row],[IGP]]-Table2[[#This Row],[Global 119]]</f>
         <v>-2.7000000000001023E-2</v>
       </c>
-      <c r="F4">
-        <v>107.303</v>
-      </c>
       <c r="G4">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[80]]</f>
-        <v>-4.7120000000000033</v>
+        <v>3.9009999999999998</v>
       </c>
       <c r="H4">
         <v>86.682000000000002</v>
       </c>
       <c r="I4">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[G10]]</f>
+        <f>Table2[[#This Row],[IGP]]-Table2[[#This Row],[G10]]</f>
         <v>15.908999999999992</v>
       </c>
       <c r="J4">
-        <v>90.349000000000004</v>
+        <v>20.373000000000001</v>
       </c>
       <c r="K4">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[G20]]</f>
-        <v>12.24199999999999</v>
+        <v>114.54300000000001</v>
       </c>
       <c r="L4">
-        <v>114.54300000000001</v>
+        <f>Table2[[#This Row],[IGP]]-Table2[[#This Row],[A10]]</f>
+        <v>-11.952000000000012</v>
       </c>
       <c r="M4">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[A10]]</f>
-        <v>-11.952000000000012</v>
-      </c>
-      <c r="N4">
-        <v>103.735</v>
-      </c>
-      <c r="O4">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[A20]]</f>
-        <v>-1.1440000000000055</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.7969999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <v>25.199000000000002</v>
@@ -4846,51 +7880,42 @@
         <v>25.199000000000002</v>
       </c>
       <c r="D5">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="E5">
         <v>25.222000000000001</v>
       </c>
-      <c r="E5">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[119]]</f>
+      <c r="F5">
+        <f>Table2[[#This Row],[IGP]]-Table2[[#This Row],[Global 119]]</f>
         <v>-2.2999999999999687E-2</v>
       </c>
-      <c r="F5">
-        <v>25.32</v>
-      </c>
       <c r="G5">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[80]]</f>
-        <v>-0.12099999999999866</v>
+        <v>1.4139999999999999</v>
       </c>
       <c r="H5">
         <v>30.234000000000002</v>
       </c>
       <c r="I5">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[G10]]</f>
+        <f>Table2[[#This Row],[IGP]]-Table2[[#This Row],[G10]]</f>
         <v>-5.0350000000000001</v>
       </c>
       <c r="J5">
-        <v>27.952000000000002</v>
+        <v>4.9640000000000004</v>
       </c>
       <c r="K5">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[G20]]</f>
-        <v>-2.7530000000000001</v>
+        <v>1.337</v>
       </c>
       <c r="L5">
-        <v>1.337</v>
+        <f>Table2[[#This Row],[IGP]]-Table2[[#This Row],[A10]]</f>
+        <v>23.862000000000002</v>
       </c>
       <c r="M5">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[A10]]</f>
-        <v>23.862000000000002</v>
-      </c>
-      <c r="N5">
-        <v>2.7</v>
-      </c>
-      <c r="O5">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[A20]]</f>
-        <v>22.499000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.3559999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="B6">
         <v>0.63300000000000001</v>
@@ -4898,52 +7923,40 @@
       <c r="C6">
         <v>-0.63300000000000001</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-0.63400000000000001</v>
       </c>
-      <c r="E6">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[119]]</f>
+      <c r="F6">
+        <f>Table2[[#This Row],[IGP]]-Table2[[#This Row],[Global 119]]</f>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="F6">
-        <v>-0.74399999999999999</v>
-      </c>
       <c r="G6">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[80]]</f>
-        <v>0.11099999999999999</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="H6">
         <v>-0.216</v>
       </c>
       <c r="I6">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[G10]]</f>
+        <f>Table2[[#This Row],[IGP]]-Table2[[#This Row],[G10]]</f>
         <v>-0.41700000000000004</v>
       </c>
       <c r="J6">
-        <v>-0.30099999999999999</v>
+        <v>0.433</v>
       </c>
       <c r="K6">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[G20]]</f>
-        <v>-0.33200000000000002</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="L6">
-        <v>-3.5000000000000003E-2</v>
+        <f>Table2[[#This Row],[IGP]]-Table2[[#This Row],[A10]]</f>
+        <v>-0.59799999999999998</v>
       </c>
       <c r="M6">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[A10]]</f>
-        <v>-0.59799999999999998</v>
-      </c>
-      <c r="N6">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="O6">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[A20]]</f>
-        <v>-0.77800000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B7">
         <v>-0.23899999999999999</v>
@@ -4951,52 +7964,40 @@
       <c r="C7">
         <v>0.23899999999999999</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.24</v>
       </c>
-      <c r="E7">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[119]]</f>
+      <c r="F7">
+        <f>Table2[[#This Row],[IGP]]-Table2[[#This Row],[Global 119]]</f>
         <v>-1.0000000000000009E-3</v>
       </c>
-      <c r="F7">
-        <v>0.251</v>
-      </c>
       <c r="G7">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[80]]</f>
-        <v>-1.2000000000000011E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="H7">
         <v>-8.6999999999999994E-2</v>
       </c>
       <c r="I7">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[G10]]</f>
+        <f>Table2[[#This Row],[IGP]]-Table2[[#This Row],[G10]]</f>
         <v>0.32599999999999996</v>
       </c>
       <c r="J7">
-        <v>-8.0000000000000002E-3</v>
+        <v>0.186</v>
       </c>
       <c r="K7">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[G20]]</f>
-        <v>0.247</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="L7">
-        <v>0.14099999999999999</v>
+        <f>Table2[[#This Row],[IGP]]-Table2[[#This Row],[A10]]</f>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="M7">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[A10]]</f>
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="N7">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="O7">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[A20]]</f>
-        <v>-0.188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8">
         <v>0.9</v>
@@ -5004,52 +8005,40 @@
       <c r="C8">
         <v>-0.9</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-0.89900000000000002</v>
       </c>
-      <c r="E8">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[119]]</f>
+      <c r="F8">
+        <f>Table2[[#This Row],[IGP]]-Table2[[#This Row],[Global 119]]</f>
         <v>-1.0000000000000009E-3</v>
       </c>
-      <c r="F8">
-        <v>-0.8</v>
-      </c>
       <c r="G8">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[80]]</f>
-        <v>-9.9999999999999978E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="H8">
         <v>-1.232</v>
       </c>
       <c r="I8">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[G10]]</f>
+        <f>Table2[[#This Row],[IGP]]-Table2[[#This Row],[G10]]</f>
         <v>0.33199999999999996</v>
       </c>
       <c r="J8">
-        <v>-1.157</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="K8">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[G20]]</f>
-        <v>0.25700000000000001</v>
+        <v>-0.115</v>
       </c>
       <c r="L8">
-        <v>-0.115</v>
+        <f>Table2[[#This Row],[IGP]]-Table2[[#This Row],[A10]]</f>
+        <v>-0.78500000000000003</v>
       </c>
       <c r="M8">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[A10]]</f>
-        <v>-0.78500000000000003</v>
-      </c>
-      <c r="N8">
-        <v>-0.35599999999999998</v>
-      </c>
-      <c r="O8">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[A20]]</f>
-        <v>-0.54400000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B9">
         <v>1.95</v>
@@ -5057,65 +8046,404 @@
       <c r="C9">
         <v>1.95</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1.9419999999999999</v>
       </c>
-      <c r="E9">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[119]]</f>
+      <c r="F9">
+        <f>Table2[[#This Row],[IGP]]-Table2[[#This Row],[Global 119]]</f>
         <v>8.0000000000000071E-3</v>
       </c>
-      <c r="F9">
-        <v>1.9710000000000001</v>
-      </c>
       <c r="G9">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[80]]</f>
-        <v>-2.100000000000013E-2</v>
+        <v>0.21</v>
       </c>
       <c r="H9">
         <v>2.2599999999999998</v>
       </c>
       <c r="I9">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[G10]]</f>
+        <f>Table2[[#This Row],[IGP]]-Table2[[#This Row],[G10]]</f>
         <v>-0.30999999999999983</v>
       </c>
       <c r="J9">
-        <v>2.44</v>
+        <v>0.754</v>
       </c>
       <c r="K9">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[G20]]</f>
-        <v>-0.49</v>
+        <v>8.1449999999999996</v>
       </c>
       <c r="L9">
+        <f>Table2[[#This Row],[IGP]]-Table2[[#This Row],[A10]]</f>
+        <v>-6.1949999999999994</v>
+      </c>
+      <c r="M9">
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>-230.994</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-230.994</v>
+      </c>
+      <c r="D18" s="8">
+        <v>-230.94800000000001</v>
+      </c>
+      <c r="E18" s="8">
+        <v>-239.94399999999999</v>
+      </c>
+      <c r="F18" s="9">
+        <v>-260.95699999999999</v>
+      </c>
+      <c r="G18" s="7">
+        <f>Table22[[#This Row],[IGP]]-Table22[[#This Row],[Global 119]]</f>
+        <v>-4.5999999999992269E-2</v>
+      </c>
+      <c r="H18" s="8">
+        <f>Table22[[#This Row],[IGP]]-Table22[[#This Row],[G10]]</f>
+        <v>8.9499999999999886</v>
+      </c>
+      <c r="I18" s="9">
+        <f>Table22[[#This Row],[IGP]]-Table22[[#This Row],[A10]]</f>
+        <v>29.962999999999994</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1.56</v>
+      </c>
+      <c r="K18" s="8">
+        <v>6.04</v>
+      </c>
+      <c r="L18" s="9">
+        <v>3.915</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19">
+        <v>102.59099999999999</v>
+      </c>
+      <c r="C19" s="7">
+        <v>102.59099999999999</v>
+      </c>
+      <c r="D19" s="8">
+        <v>102.61799999999999</v>
+      </c>
+      <c r="E19" s="8">
+        <v>86.682000000000002</v>
+      </c>
+      <c r="F19" s="9">
+        <v>114.54300000000001</v>
+      </c>
+      <c r="G19" s="7">
+        <f>Table22[[#This Row],[IGP]]-Table22[[#This Row],[Global 119]]</f>
+        <v>-2.7000000000001023E-2</v>
+      </c>
+      <c r="H19" s="8">
+        <f>Table22[[#This Row],[IGP]]-Table22[[#This Row],[G10]]</f>
+        <v>15.908999999999992</v>
+      </c>
+      <c r="I19" s="9">
+        <f>Table22[[#This Row],[IGP]]-Table22[[#This Row],[A10]]</f>
+        <v>-11.952000000000012</v>
+      </c>
+      <c r="J19" s="7">
+        <v>3.9009999999999998</v>
+      </c>
+      <c r="K19" s="8">
+        <v>20.373000000000001</v>
+      </c>
+      <c r="L19" s="9">
+        <v>5.7969999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20">
+        <v>25.199000000000002</v>
+      </c>
+      <c r="C20" s="7">
+        <v>25.199000000000002</v>
+      </c>
+      <c r="D20" s="8">
+        <v>25.222000000000001</v>
+      </c>
+      <c r="E20" s="8">
+        <v>30.234000000000002</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1.337</v>
+      </c>
+      <c r="G20" s="7">
+        <f>Table22[[#This Row],[IGP]]-Table22[[#This Row],[Global 119]]</f>
+        <v>-2.2999999999999687E-2</v>
+      </c>
+      <c r="H20" s="8">
+        <f>Table22[[#This Row],[IGP]]-Table22[[#This Row],[G10]]</f>
+        <v>-5.0350000000000001</v>
+      </c>
+      <c r="I20" s="9">
+        <f>Table22[[#This Row],[IGP]]-Table22[[#This Row],[A10]]</f>
+        <v>23.862000000000002</v>
+      </c>
+      <c r="J20" s="7">
+        <v>1.4139999999999999</v>
+      </c>
+      <c r="K20" s="8">
+        <v>4.9640000000000004</v>
+      </c>
+      <c r="L20" s="9">
+        <v>4.3559999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-0.63300000000000001</v>
+      </c>
+      <c r="D21" s="8">
+        <v>-0.63400000000000001</v>
+      </c>
+      <c r="E21" s="8">
+        <v>-0.216</v>
+      </c>
+      <c r="F21" s="9">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="G21" s="7">
+        <f>Table22[[#This Row],[IGP]]-Table22[[#This Row],[Global 119]]</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="H21" s="8">
+        <f>Table22[[#This Row],[IGP]]-Table22[[#This Row],[G10]]</f>
+        <v>-0.41700000000000004</v>
+      </c>
+      <c r="I21" s="9">
+        <f>Table22[[#This Row],[IGP]]-Table22[[#This Row],[A10]]</f>
+        <v>-0.59799999999999998</v>
+      </c>
+      <c r="J21" s="7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0.433</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22">
+        <v>-0.23899999999999999</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="E22" s="8">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="G22" s="7">
+        <f>Table22[[#This Row],[IGP]]-Table22[[#This Row],[Global 119]]</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="H22" s="8">
+        <f>Table22[[#This Row],[IGP]]-Table22[[#This Row],[G10]]</f>
+        <v>0.32599999999999996</v>
+      </c>
+      <c r="I22" s="9">
+        <f>Table22[[#This Row],[IGP]]-Table22[[#This Row],[A10]]</f>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="J22" s="7">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0.186</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23">
+        <v>0.9</v>
+      </c>
+      <c r="C23" s="7">
+        <v>-0.9</v>
+      </c>
+      <c r="D23" s="8">
+        <v>-0.89900000000000002</v>
+      </c>
+      <c r="E23" s="8">
+        <v>-1.232</v>
+      </c>
+      <c r="F23" s="9">
+        <v>-0.115</v>
+      </c>
+      <c r="G23" s="7">
+        <f>Table22[[#This Row],[IGP]]-Table22[[#This Row],[Global 119]]</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="H23" s="8">
+        <f>Table22[[#This Row],[IGP]]-Table22[[#This Row],[G10]]</f>
+        <v>0.33199999999999996</v>
+      </c>
+      <c r="I23" s="9">
+        <f>Table22[[#This Row],[IGP]]-Table22[[#This Row],[A10]]</f>
+        <v>-0.78500000000000003</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24">
+        <v>1.95</v>
+      </c>
+      <c r="C24" s="10">
+        <v>1.95</v>
+      </c>
+      <c r="D24" s="11">
+        <v>1.9419999999999999</v>
+      </c>
+      <c r="E24" s="11">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F24" s="12">
         <v>8.1449999999999996</v>
       </c>
-      <c r="M9">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[A10]]</f>
+      <c r="G24" s="10">
+        <f>Table22[[#This Row],[IGP]]-Table22[[#This Row],[Global 119]]</f>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="H24" s="11">
+        <f>Table22[[#This Row],[IGP]]-Table22[[#This Row],[G10]]</f>
+        <v>-0.30999999999999983</v>
+      </c>
+      <c r="I24" s="12">
+        <f>Table22[[#This Row],[IGP]]-Table22[[#This Row],[A10]]</f>
         <v>-6.1949999999999994</v>
       </c>
-      <c r="N9">
-        <v>5.8570000000000002</v>
-      </c>
-      <c r="O9">
-        <f>Table2[[#This Row],[DGT rot]]-Table2[[#This Row],[A20]]</f>
-        <v>-3.907</v>
+      <c r="J24" s="10">
+        <v>0.21</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0.754</v>
+      </c>
+      <c r="L24" s="12">
+        <v>0.55200000000000005</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F6"/>
+      <selection activeCell="A10" sqref="A10:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5181,28 +8509,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D23"/>
+      <selection activeCell="A9" sqref="A9:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -5212,37 +8540,37 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -5251,28 +8579,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="A24" sqref="A8:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -5282,37 +8610,37 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -5321,208 +8649,118 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="D14" sqref="A10:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>-230.994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>102.59099999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>25.199000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>-0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="C11">
+        <v>1.351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="C12">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>49</v>
+      <c r="B13">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="C13">
+        <v>1.0169999999999999</v>
       </c>
     </row>
   </sheetData>
